--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/Courses/cs152.github.io/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB57233-3378-694E-8135-108F4D157935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4AE652-5378-B44A-97E5-77496E889747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="1540" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="143">
   <si>
     <t>Week</t>
   </si>
@@ -3060,10 +3060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -3632,19 +3632,25 @@
     </row>
     <row r="26" spans="1:8" ht="48" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3">
-        <v>45735</v>
+        <v>45740</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="48" customHeight="1">
@@ -3652,22 +3658,25 @@
         <v>31</v>
       </c>
       <c r="B27" s="3">
-        <v>45740</v>
+        <v>45742</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>114</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="48" customHeight="1">
@@ -3675,42 +3684,39 @@
         <v>31</v>
       </c>
       <c r="B28" s="3">
-        <v>45742</v>
+        <v>45743</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>116</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="48" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3">
-        <v>45743</v>
+        <v>45747</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="G29" s="2" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="48" customHeight="1">
@@ -3718,13 +3724,13 @@
         <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>45747</v>
+        <v>45749</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>120</v>
@@ -3733,7 +3739,10 @@
         <v>119</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="48" customHeight="1">
@@ -3741,64 +3750,60 @@
         <v>34</v>
       </c>
       <c r="B31" s="3">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>119</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>123</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="48" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3">
-        <v>45750</v>
+        <v>45754</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="F32" s="8"/>
       <c r="G32" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="8"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="48" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="3">
-        <v>45754</v>
+        <v>45756</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="8"/>
+      <c r="D33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="48" customHeight="1">
@@ -3806,62 +3811,62 @@
         <v>37</v>
       </c>
       <c r="B34" s="3">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>129</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="48" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35" s="3">
-        <v>45757</v>
+        <v>45761</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="G35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H35" s="11"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="48" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="3">
-        <v>45761</v>
+        <v>45763</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>125</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="48" customHeight="1">
@@ -3869,38 +3874,35 @@
         <v>40</v>
       </c>
       <c r="B37" s="3">
-        <v>45763</v>
+        <v>45764</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="48" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38" s="3">
-        <v>45764</v>
+        <v>45768</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="2" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="48" customHeight="1">
@@ -3908,18 +3910,21 @@
         <v>43</v>
       </c>
       <c r="B39" s="3">
-        <v>45768</v>
+        <v>45770</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>44</v>
+        <v>138</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="48" customHeight="1">
@@ -3927,38 +3932,35 @@
         <v>43</v>
       </c>
       <c r="B40" s="3">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="48" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41" s="3">
-        <v>45771</v>
+        <v>45775</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="2" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="48" customHeight="1">
@@ -3966,18 +3968,18 @@
         <v>45</v>
       </c>
       <c r="B42" s="3">
-        <v>45775</v>
+        <v>45776</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="48" customHeight="1">
@@ -3985,43 +3987,41 @@
         <v>45</v>
       </c>
       <c r="B43" s="3">
-        <v>45776</v>
+        <v>45777</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="2" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="48" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44" s="3">
-        <v>45777</v>
+        <v>45786</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="2" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="48" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="3">
-        <v>45786</v>
+      <c r="B45" s="6">
+        <v>45789</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>49</v>
@@ -4030,23 +4030,6 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="48" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="6">
-        <v>45789</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="2" t="s">
         <v>51</v>
       </c>
     </row>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/Courses/cs152.github.io/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4AE652-5378-B44A-97E5-77496E889747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC5CBC1-ECA2-9041-806D-E0198DBE365A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="1540" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="1140" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="153">
   <si>
     <t>Week</t>
   </si>
@@ -76,9 +76,6 @@
     <t>homework</t>
   </si>
   <si>
-    <t>[Assignment](../modules/01-Single-variable/assignments/hw1-single-variable.qmd) [Gradescope](https://www.gradescope.com/courses/842824/assignments/4961117)</t>
-  </si>
-  <si>
     <t>Homework 1 Due</t>
   </si>
   <si>
@@ -517,8 +514,11 @@
     <t xml:space="preserve">[Book 1](https://probml.github.io/pml-book/book1.html): 10.2.2 </t>
   </si>
   <si>
-    <r>
-      <t>Final project ethics warm-up assigned ([</t>
+    <t>Feature transforms</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -527,7 +527,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>Description</t>
+      <t>Book 1</t>
     </r>
     <r>
       <rPr>
@@ -546,7 +546,181 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>../assignments/final-project/ethics.qmd</t>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>): 13.1, 13.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>../lecture4-feature-transforms/notes.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural networks </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">): 13.1, 13.2 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>../lecture5-neural-networks-intro/notes.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>lecture 7</t>
+  </si>
+  <si>
+    <r>
+      <t>Homework 3 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/drive/folders/1Df96GdFpucM-YUf6c5PTWUfxWY-UrLXl?usp=drive_link</t>
     </r>
     <r>
       <rPr>
@@ -559,7 +733,13 @@
     </r>
   </si>
   <si>
-    <t>Feature transforms</t>
+    <t>Deep neural networks</t>
+  </si>
+  <si>
+    <t>Automatic Differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Book 1](https://probml.github.io/pml-book/book1.html): 13.3 </t>
   </si>
   <si>
     <r>
@@ -572,6 +752,96 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
+      <t>Notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>../lecture6-backpropagation/notes.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Homework 4 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/drive/folders/1wIblhOu4c0LlbiveKP1Z2uTVre3d62pO?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>Homework 3 Due</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse-mode Automatic Differentiation </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
       <t>Book 1</t>
     </r>
     <r>
@@ -600,8 +870,11 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>): 13.1, 13.2</t>
-    </r>
+      <t xml:space="preserve">): 13.4.5, 13.5 </t>
+    </r>
+  </si>
+  <si>
+    <t>PyTorch</t>
   </si>
   <si>
     <r>
@@ -614,6 +887,141 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>): 13.5</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Notebook](https://drive.google.com/file/d/1N76hpENuKchbfN0o-NZ02FAgZYPiWPVf/view?usp=drive_link)</t>
+  </si>
+  <si>
+    <r>
+      <t>Homework 5 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/drive/folders/1C9vFAnO_sogGupxvOrU4uQl8ZkF7seU5?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>Homework 4 Due</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1 &amp; L2 regularization </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">): 8.4 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
       <t>Notes</t>
     </r>
     <r>
@@ -633,7 +1041,94 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>../lecture4-feature-transforms/notes.qmd</t>
+      <t>../lecture8-optimization/notes.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Regularization (Cont.), Dropout </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>): 13.4.1-13.4.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>../lecture8-optimization/notes.qmd</t>
     </r>
     <r>
       <rPr>
@@ -646,7 +1141,52 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Neural networks </t>
+    <r>
+      <t>Homework 6 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/drive/u/1/folders/1ohI5itSgEhBNmKSLQSjwmJlgWjioWDhi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>Homework 5 Due</t>
+  </si>
+  <si>
+    <t>Stochastic gradient descent</t>
   </si>
   <si>
     <r>
@@ -687,7 +1227,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">): 13.1, 13.2 </t>
+      <t xml:space="preserve">): 14.1-14.3 </t>
     </r>
   </si>
   <si>
@@ -720,7 +1260,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>../lecture5-neural-networks-intro/notes.qmd</t>
+      <t>../lecture9-optimization/notes.qmd</t>
     </r>
     <r>
       <rPr>
@@ -733,11 +1273,23 @@
     </r>
   </si>
   <si>
-    <t>lecture 7</t>
-  </si>
-  <si>
-    <r>
-      <t>Homework 3 assigned ([</t>
+    <t>Homework 6 Due</t>
+  </si>
+  <si>
+    <t>Spring break</t>
+  </si>
+  <si>
+    <t>Project Proposal Due</t>
+  </si>
+  <si>
+    <t>Residual networks and Normalization</t>
+  </si>
+  <si>
+    <t>Residual networks and Normalization (cont.)</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -746,6 +1298,225 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">): 15.1, 15.2.1-15.2.3 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>./notes/lecture14.pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>./notes/lecture15.pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>Convolutional Networks</t>
+  </si>
+  <si>
+    <t>Convolutional Networks (cont.)</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>./notes/lecture16.pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">): 15.2.5-15.2.7 </t>
+    </r>
+  </si>
+  <si>
+    <t>Language models, RNNs</t>
+  </si>
+  <si>
+    <r>
+      <t>Homework 7 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
       <t>Drive</t>
     </r>
     <r>
@@ -765,7 +1536,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>https://drive.google.com/drive/folders/1Df96GdFpucM-YUf6c5PTWUfxWY-UrLXl?usp=drive_link</t>
+      <t>https://drive.google.com/drive/folders/1vZYEOfmDCfGxWMAAXeEwgMlvCOfKUgle?usp=drive_link</t>
     </r>
     <r>
       <rPr>
@@ -778,16 +1549,49 @@
     </r>
   </si>
   <si>
-    <t>Ethics assignment due</t>
-  </si>
-  <si>
-    <t>Deep neural networks</t>
-  </si>
-  <si>
-    <t>Automatic Differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Book 1](https://probml.github.io/pml-book/book1.html): 13.3 </t>
+    <r>
+      <t>Homework 8 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/drive/folders/1lO11Br_irrOckxZVZdi72MSjR8lTvQ_O?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>[Book 1](https://probml.github.io/pml-book/book1.html): 15.2.1-15.2.6</t>
   </si>
   <si>
     <r>
@@ -800,7 +1604,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>Notes</t>
+      <t>Slides</t>
     </r>
     <r>
       <rPr>
@@ -819,7 +1623,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>../lecture6-backpropagation/notes.qmd</t>
+      <t>./notes/lecture17.pdf</t>
     </r>
     <r>
       <rPr>
@@ -832,8 +1636,23 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Homework 4 assigned ([</t>
+    <t>Autoencoders &amp; U-Nets</t>
+  </si>
+  <si>
+    <t>Image models</t>
+  </si>
+  <si>
+    <t>Homework 7 Due</t>
+  </si>
+  <si>
+    <t>Homework 9 assigned</t>
+  </si>
+  <si>
+    <t>Homework 8 Due</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -842,7 +1661,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>Drive</t>
+      <t>Book 1</t>
     </r>
     <r>
       <rPr>
@@ -861,54 +1680,6 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>https://drive.google.com/drive/folders/1wIblhOu4c0LlbiveKP1Z2uTVre3d62pO?usp=drive_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <t>Homework 3 Due</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse-mode Automatic Differentiation </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
       <t>https://probml.github.io/pml-book/book1.html</t>
     </r>
     <r>
@@ -918,867 +1689,6 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">): 13.4.5, 13.5 </t>
-    </r>
-  </si>
-  <si>
-    <t>PyTorch</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>): 13.5</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> [Notebook](https://drive.google.com/file/d/1N76hpENuKchbfN0o-NZ02FAgZYPiWPVf/view?usp=drive_link)</t>
-  </si>
-  <si>
-    <r>
-      <t>Homework 5 assigned ([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://drive.google.com/drive/folders/1C9vFAnO_sogGupxvOrU4uQl8ZkF7seU5?usp=drive_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <t>Homework 4 Due</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1 &amp; L2 regularization </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">): 8.4 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>../lecture8-optimization/notes.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Regularization (Cont.), Dropout </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>): 13.4.1-13.4.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>../lecture8-optimization/notes.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Homework 6 assigned ([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://drive.google.com/drive/u/1/folders/1ohI5itSgEhBNmKSLQSjwmJlgWjioWDhi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <t>Homework 5 Due</t>
-  </si>
-  <si>
-    <t>Stochastic gradient descent</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">): 14.1-14.3 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>../lecture9-optimization/notes.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Final project proposal assigned ([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Description</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>../assignments/final-project/outline.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <t>Homework 6 Due</t>
-  </si>
-  <si>
-    <t>Spring break</t>
-  </si>
-  <si>
-    <t>Project Proposal Due</t>
-  </si>
-  <si>
-    <t>Residual networks and Normalization</t>
-  </si>
-  <si>
-    <t>Residual networks and Normalization (cont.)</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">): 15.1, 15.2.1-15.2.3 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Slides</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>./notes/lecture14.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Slides</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>./notes/lecture15.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <t>Convolutional Networks</t>
-  </si>
-  <si>
-    <t>Convolutional Networks (cont.)</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Slides</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>./notes/lecture16.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">): 15.2.5-15.2.7 </t>
-    </r>
-  </si>
-  <si>
-    <t>Language models, RNNs</t>
-  </si>
-  <si>
-    <r>
-      <t>Homework 7 assigned ([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://drive.google.com/drive/folders/1vZYEOfmDCfGxWMAAXeEwgMlvCOfKUgle?usp=drive_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Homework 8 assigned ([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://drive.google.com/drive/folders/1lO11Br_irrOckxZVZdi72MSjR8lTvQ_O?usp=drive_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <t>[Book 1](https://probml.github.io/pml-book/book1.html): 15.2.1-15.2.6</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Slides</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>./notes/lecture17.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <t>Autoencoders &amp; U-Nets</t>
-  </si>
-  <si>
-    <t>Image models</t>
-  </si>
-  <si>
-    <t>Homework 7 Due</t>
-  </si>
-  <si>
-    <t>Homework 9 assigned</t>
-  </si>
-  <si>
-    <t>Homework 8 Due</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
       <t>): 15.2.1-15.2.6</t>
     </r>
   </si>
@@ -1814,6 +1724,48 @@
   </si>
   <si>
     <t>Homework 10 Due</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-1)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-2)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-3)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-4)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-5)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-6)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-7)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-8)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-9)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final project ethics warm-up assigned </t>
+  </si>
+  <si>
+    <t>Ethics Warm-up Due</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/final-project/ethics.qmd)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/final-project/outline.qmd)</t>
   </si>
 </sst>
 </file>
@@ -1917,7 +1869,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1928,7 +1880,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3062,8 +3013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -3100,7 +3051,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="48" customHeight="1">
@@ -3117,7 +3068,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" customHeight="1">
@@ -3131,19 +3082,19 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="48" customHeight="1">
@@ -3157,16 +3108,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1">
@@ -3180,19 +3131,19 @@
         <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="48" customHeight="1">
@@ -3207,9 +3158,11 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="48" customHeight="1">
@@ -3223,16 +3176,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="48" customHeight="1">
@@ -3246,19 +3199,19 @@
         <v>8</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="48" customHeight="1">
@@ -3273,9 +3226,11 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="8"/>
     </row>
@@ -3290,13 +3245,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
@@ -3313,19 +3268,19 @@
         <v>8</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="G11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="H11" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="48" customHeight="1">
@@ -3340,9 +3295,11 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="48" customHeight="1">
@@ -3356,13 +3313,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>16</v>
@@ -3379,19 +3336,19 @@
         <v>8</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="48" customHeight="1">
@@ -3406,16 +3363,16 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="4" t="s">
-        <v>18</v>
+      <c r="F15" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="48" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3">
         <v>45712</v>
@@ -3424,21 +3381,21 @@
         <v>8</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="48" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3">
         <v>45714</v>
@@ -3447,24 +3404,24 @@
         <v>8</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="48" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3">
         <v>45715</v>
@@ -3474,15 +3431,17 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="10"/>
+      <c r="F18" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="48" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3">
         <v>45719</v>
@@ -3491,21 +3450,21 @@
         <v>8</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="48" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="3">
         <v>45721</v>
@@ -3514,24 +3473,24 @@
         <v>8</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="48" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3">
         <v>45722</v>
@@ -3541,15 +3500,17 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="G21" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" ht="48" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="3">
         <v>45726</v>
@@ -3558,21 +3519,21 @@
         <v>8</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="48" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3">
         <v>45728</v>
@@ -3581,24 +3542,21 @@
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="48" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3">
         <v>45729</v>
@@ -3608,14 +3566,16 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="48" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="3">
         <v>45733</v>
@@ -3627,12 +3587,12 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="48" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3">
         <v>45740</v>
@@ -3641,21 +3601,21 @@
         <v>8</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="48" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="3">
         <v>45742</v>
@@ -3664,24 +3624,21 @@
         <v>8</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="48" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="3">
         <v>45743</v>
@@ -3691,14 +3648,16 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="G28" s="2" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="48" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="3">
         <v>45747</v>
@@ -3707,21 +3666,21 @@
         <v>8</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="48" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="3">
         <v>45749</v>
@@ -3730,24 +3689,24 @@
         <v>8</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F30" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="48" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="3">
         <v>45750</v>
@@ -3757,15 +3716,17 @@
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="G31" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="48" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3">
         <v>45754</v>
@@ -3774,19 +3735,19 @@
         <v>8</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="48" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="3">
         <v>45756</v>
@@ -3795,20 +3756,20 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="7"/>
       <c r="G33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>129</v>
+        <v>38</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="48" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="3">
         <v>45757</v>
@@ -3818,15 +3779,17 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H34" s="11"/>
+      <c r="F34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="48" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3">
         <v>45761</v>
@@ -3835,21 +3798,21 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="48" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="3">
         <v>45763</v>
@@ -3858,20 +3821,20 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="48" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="3">
         <v>45764</v>
@@ -3881,14 +3844,16 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="F37" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="G37" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="48" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="3">
         <v>45768</v>
@@ -3897,17 +3862,17 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="48" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="3">
         <v>45770</v>
@@ -3916,20 +3881,20 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="48" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="3">
         <v>45771</v>
@@ -3939,14 +3904,16 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="F40" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="G40" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="48" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="3">
         <v>45775</v>
@@ -3955,17 +3922,17 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="48" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="3">
         <v>45776</v>
@@ -3974,17 +3941,17 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="48" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="3">
         <v>45777</v>
@@ -3994,43 +3961,50 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="F43" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="G43" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="48" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="3">
         <v>45786</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="F44" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="G44" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="48" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="6">
         <v>45789</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/Courses/cs152.github.io/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC5CBC1-ECA2-9041-806D-E0198DBE365A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4BF636-EE33-AE4E-8E20-7ADD029C3CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1140" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -322,9 +322,6 @@
     <t>[Notes](../lecture2-linear-regression/notes.qmd) [Slides](./notes/lecture2.pdf)</t>
   </si>
   <si>
-    <t xml:space="preserve">[Notes](../lecture1-background/notes.qmd) </t>
-  </si>
-  <si>
     <t>Lecture 2</t>
   </si>
   <si>
@@ -1766,6 +1763,9 @@
   </si>
   <si>
     <t>[Assignment](../assignments/final-project/outline.qmd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Prerequisites](../lecture1-background/notes.qmd) [Notes](../lecture1-background/notes-1.qmd) [slides](../lecture1-background/slides.pdf) </t>
   </si>
 </sst>
 </file>
@@ -3013,8 +3013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -3088,7 +3088,7 @@
         <v>54</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>55</v>
@@ -3117,7 +3117,7 @@
         <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1">
@@ -3131,19 +3131,19 @@
         <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="48" customHeight="1">
@@ -3159,7 +3159,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>18</v>
@@ -3176,16 +3176,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="48" customHeight="1">
@@ -3199,19 +3199,19 @@
         <v>8</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="48" customHeight="1">
@@ -3227,7 +3227,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>51</v>
@@ -3245,13 +3245,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
@@ -3268,19 +3268,19 @@
         <v>8</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="H11" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="48" customHeight="1">
@@ -3296,10 +3296,10 @@
       <c r="D12" s="2"/>
       <c r="E12" s="5"/>
       <c r="F12" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="48" customHeight="1">
@@ -3313,13 +3313,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>16</v>
@@ -3336,19 +3336,19 @@
         <v>8</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="48" customHeight="1">
@@ -3364,10 +3364,10 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
       <c r="F15" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="48" customHeight="1">
@@ -3381,13 +3381,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="F16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -3404,19 +3404,19 @@
         <v>8</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="48" customHeight="1">
@@ -3432,10 +3432,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -3450,13 +3450,13 @@
         <v>8</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>25</v>
@@ -3473,19 +3473,19 @@
         <v>8</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="48" customHeight="1">
@@ -3501,10 +3501,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -3519,13 +3519,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>28</v>
@@ -3542,13 +3542,13 @@
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>29</v>
@@ -3567,10 +3567,10 @@
       <c r="D24" s="2"/>
       <c r="E24" s="5"/>
       <c r="F24" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="48" customHeight="1">
@@ -3587,7 +3587,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="48" customHeight="1">
@@ -3601,13 +3601,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>31</v>
@@ -3624,13 +3624,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="F27" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>32</v>
@@ -3649,10 +3649,10 @@
       <c r="D28" s="2"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="48" customHeight="1">
@@ -3666,13 +3666,13 @@
         <v>8</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>34</v>
@@ -3689,19 +3689,19 @@
         <v>8</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="48" customHeight="1">
@@ -3717,10 +3717,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H31" s="8"/>
     </row>
@@ -3735,10 +3735,10 @@
         <v>8</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="2" t="s">
@@ -3756,7 +3756,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="7"/>
@@ -3764,7 +3764,7 @@
         <v>38</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="48" customHeight="1">
@@ -3780,10 +3780,10 @@
       <c r="D34" s="2"/>
       <c r="E34" s="5"/>
       <c r="F34" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H34" s="10"/>
     </row>
@@ -3798,13 +3798,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>40</v>
@@ -3821,7 +3821,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3829,7 +3829,7 @@
         <v>41</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="48" customHeight="1">
@@ -3845,10 +3845,10 @@
       <c r="D37" s="2"/>
       <c r="E37" s="5"/>
       <c r="F37" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="48" customHeight="1">
@@ -3862,7 +3862,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3881,15 +3881,15 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="48" customHeight="1">
@@ -3905,10 +3905,10 @@
       <c r="D40" s="2"/>
       <c r="E40" s="5"/>
       <c r="F40" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="48" customHeight="1">
@@ -3922,7 +3922,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -3941,7 +3941,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -3962,10 +3962,10 @@
       <c r="D43" s="2"/>
       <c r="E43" s="5"/>
       <c r="F43" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="48" customHeight="1">
@@ -3981,7 +3981,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>49</v>
@@ -4004,7 +4004,7 @@
         <v>50</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/Courses/cs152.github.io/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4BF636-EE33-AE4E-8E20-7ADD029C3CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC5B0CA-7E14-4B4E-B60D-EA24DB460E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2380" yWindow="2360" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1765,7 +1765,7 @@
     <t>[Assignment](../assignments/final-project/outline.qmd)</t>
   </si>
   <si>
-    <t xml:space="preserve">[Prerequisites](../lecture1-background/notes.qmd) [Notes](../lecture1-background/notes-1.qmd) [slides](../lecture1-background/slides.pdf) </t>
+    <t xml:space="preserve">[Prerequisites](../lecture1-background/prereqs.qmd) [Notes](../lecture1-background/notes.qmd) [slides](../lecture1-background/slides.pdf) </t>
   </si>
 </sst>
 </file>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/Courses/cs152.github.io/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC5B0CA-7E14-4B4E-B60D-EA24DB460E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966978EA-0D6A-C345-A76B-263257D8AE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2380" yWindow="2360" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1009,6 +1009,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Regularization (Cont.), Dropout </t>
+  </si>
+  <si>
     <r>
       <t>[</t>
     </r>
@@ -1019,6 +1022,138 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>): 13.4.1-13.4.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Homework 6 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/drive/u/1/folders/1ohI5itSgEhBNmKSLQSjwmJlgWjioWDhi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>Homework 5 Due</t>
+  </si>
+  <si>
+    <t>Stochastic gradient descent</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">): 14.1-14.3 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
       <t>Notes</t>
     </r>
     <r>
@@ -1038,7 +1173,547 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>../lecture8-optimization/notes.qmd</t>
+      <t>../lecture9-optimization/notes.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>Homework 6 Due</t>
+  </si>
+  <si>
+    <t>Spring break</t>
+  </si>
+  <si>
+    <t>Project Proposal Due</t>
+  </si>
+  <si>
+    <t>Residual networks and Normalization</t>
+  </si>
+  <si>
+    <t>Residual networks and Normalization (cont.)</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">): 15.1, 15.2.1-15.2.3 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>./notes/lecture14.pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>./notes/lecture15.pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>Convolutional Networks</t>
+  </si>
+  <si>
+    <t>Convolutional Networks (cont.)</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>./notes/lecture16.pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">): 15.2.5-15.2.7 </t>
+    </r>
+  </si>
+  <si>
+    <t>Language models, RNNs</t>
+  </si>
+  <si>
+    <r>
+      <t>Homework 7 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/drive/folders/1vZYEOfmDCfGxWMAAXeEwgMlvCOfKUgle?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Homework 8 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/drive/folders/1lO11Br_irrOckxZVZdi72MSjR8lTvQ_O?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>[Book 1](https://probml.github.io/pml-book/book1.html): 15.2.1-15.2.6</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>./notes/lecture17.pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>Autoencoders &amp; U-Nets</t>
+  </si>
+  <si>
+    <t>Image models</t>
+  </si>
+  <si>
+    <t>Homework 7 Due</t>
+  </si>
+  <si>
+    <t>Homework 9 assigned</t>
+  </si>
+  <si>
+    <t>Homework 8 Due</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>): 15.2.1-15.2.6</t>
+    </r>
+  </si>
+  <si>
+    <t>Attention layers</t>
+  </si>
+  <si>
+    <t>Homework 10 assigned</t>
+  </si>
+  <si>
+    <t>Project check-in assigned</t>
+  </si>
+  <si>
+    <t>Homework 9 Due</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformers (cont.), Large language models </t>
+  </si>
+  <si>
+    <t>Lecture 25</t>
+  </si>
+  <si>
+    <t>Project check-in due</t>
+  </si>
+  <si>
+    <t>Addressing bias in machine learning</t>
+  </si>
+  <si>
+    <t>Impacts of machine learning</t>
+  </si>
+  <si>
+    <t>Homework 10 Due</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-1)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-2)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-3)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-4)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-5)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-6)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-7)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-8)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-9)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final project ethics warm-up assigned </t>
+  </si>
+  <si>
+    <t>Ethics Warm-up Due</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/final-project/ethics.qmd)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/final-project/outline.qmd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Prerequisites](../lecture1-background/prereqs.qmd) [Notes](../lecture1-background/notes.qmd) [slides](../lecture1-background/slides.pdf) </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>../lecture8-regularization/notes.qmd</t>
     </r>
     <r>
       <rPr>
@@ -1051,9 +1726,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Regularization (Cont.), Dropout </t>
-  </si>
-  <si>
     <r>
       <t>[</t>
     </r>
@@ -1064,7 +1736,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>Book 1</t>
+      <t>Notes</t>
     </r>
     <r>
       <rPr>
@@ -1083,49 +1755,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>): 13.4.1-13.4.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>../lecture8-optimization/notes.qmd</t>
+      <t>../lecture8-regularization/notes.qmd</t>
     </r>
     <r>
       <rPr>
@@ -1136,636 +1766,6 @@
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Homework 6 assigned ([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://drive.google.com/drive/u/1/folders/1ohI5itSgEhBNmKSLQSjwmJlgWjioWDhi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <t>Homework 5 Due</t>
-  </si>
-  <si>
-    <t>Stochastic gradient descent</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">): 14.1-14.3 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>../lecture9-optimization/notes.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <t>Homework 6 Due</t>
-  </si>
-  <si>
-    <t>Spring break</t>
-  </si>
-  <si>
-    <t>Project Proposal Due</t>
-  </si>
-  <si>
-    <t>Residual networks and Normalization</t>
-  </si>
-  <si>
-    <t>Residual networks and Normalization (cont.)</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">): 15.1, 15.2.1-15.2.3 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Slides</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>./notes/lecture14.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Slides</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>./notes/lecture15.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <t>Convolutional Networks</t>
-  </si>
-  <si>
-    <t>Convolutional Networks (cont.)</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Slides</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>./notes/lecture16.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">): 15.2.5-15.2.7 </t>
-    </r>
-  </si>
-  <si>
-    <t>Language models, RNNs</t>
-  </si>
-  <si>
-    <r>
-      <t>Homework 7 assigned ([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://drive.google.com/drive/folders/1vZYEOfmDCfGxWMAAXeEwgMlvCOfKUgle?usp=drive_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Homework 8 assigned ([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://drive.google.com/drive/folders/1lO11Br_irrOckxZVZdi72MSjR8lTvQ_O?usp=drive_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <t>[Book 1](https://probml.github.io/pml-book/book1.html): 15.2.1-15.2.6</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Slides</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>./notes/lecture17.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <t>Autoencoders &amp; U-Nets</t>
-  </si>
-  <si>
-    <t>Image models</t>
-  </si>
-  <si>
-    <t>Homework 7 Due</t>
-  </si>
-  <si>
-    <t>Homework 9 assigned</t>
-  </si>
-  <si>
-    <t>Homework 8 Due</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>): 15.2.1-15.2.6</t>
-    </r>
-  </si>
-  <si>
-    <t>Attention layers</t>
-  </si>
-  <si>
-    <t>Homework 10 assigned</t>
-  </si>
-  <si>
-    <t>Project check-in assigned</t>
-  </si>
-  <si>
-    <t>Homework 9 Due</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformers (cont.), Large language models </t>
-  </si>
-  <si>
-    <t>Lecture 25</t>
-  </si>
-  <si>
-    <t>Project check-in due</t>
-  </si>
-  <si>
-    <t>Addressing bias in machine learning</t>
-  </si>
-  <si>
-    <t>Impacts of machine learning</t>
-  </si>
-  <si>
-    <t>Homework 10 Due</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-1)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-2)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-3)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-4)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-5)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-6)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-7)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-8)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-9)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final project ethics warm-up assigned </t>
-  </si>
-  <si>
-    <t>Ethics Warm-up Due</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/final-project/ethics.qmd)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/final-project/outline.qmd)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Prerequisites](../lecture1-background/prereqs.qmd) [Notes](../lecture1-background/notes.qmd) [slides](../lecture1-background/slides.pdf) </t>
   </si>
 </sst>
 </file>
@@ -3013,8 +3013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -3088,7 +3088,7 @@
         <v>54</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>55</v>
@@ -3159,7 +3159,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>18</v>
@@ -3227,7 +3227,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>51</v>
@@ -3296,7 +3296,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="5"/>
       <c r="F12" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>85</v>
@@ -3364,7 +3364,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
       <c r="F15" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>92</v>
@@ -3416,7 +3416,7 @@
         <v>23</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="48" customHeight="1">
@@ -3432,10 +3432,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -3456,7 +3456,7 @@
         <v>94</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>25</v>
@@ -3473,19 +3473,19 @@
         <v>8</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="F20" s="8" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="48" customHeight="1">
@@ -3501,10 +3501,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -3519,13 +3519,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>28</v>
@@ -3542,13 +3542,13 @@
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>29</v>
@@ -3567,10 +3567,10 @@
       <c r="D24" s="2"/>
       <c r="E24" s="5"/>
       <c r="F24" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="48" customHeight="1">
@@ -3587,7 +3587,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="48" customHeight="1">
@@ -3601,13 +3601,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="F26" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>31</v>
@@ -3624,13 +3624,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>32</v>
@@ -3649,10 +3649,10 @@
       <c r="D28" s="2"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="48" customHeight="1">
@@ -3666,13 +3666,13 @@
         <v>8</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>34</v>
@@ -3689,19 +3689,19 @@
         <v>8</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="F30" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="48" customHeight="1">
@@ -3717,10 +3717,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H31" s="8"/>
     </row>
@@ -3735,10 +3735,10 @@
         <v>8</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="2" t="s">
@@ -3756,7 +3756,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="7"/>
@@ -3764,7 +3764,7 @@
         <v>38</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="48" customHeight="1">
@@ -3780,10 +3780,10 @@
       <c r="D34" s="2"/>
       <c r="E34" s="5"/>
       <c r="F34" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H34" s="10"/>
     </row>
@@ -3798,13 +3798,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>40</v>
@@ -3821,7 +3821,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3829,7 +3829,7 @@
         <v>41</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="48" customHeight="1">
@@ -3845,10 +3845,10 @@
       <c r="D37" s="2"/>
       <c r="E37" s="5"/>
       <c r="F37" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="48" customHeight="1">
@@ -3862,7 +3862,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3881,15 +3881,15 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="48" customHeight="1">
@@ -3905,10 +3905,10 @@
       <c r="D40" s="2"/>
       <c r="E40" s="5"/>
       <c r="F40" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="48" customHeight="1">
@@ -3922,7 +3922,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -3941,7 +3941,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -3962,10 +3962,10 @@
       <c r="D43" s="2"/>
       <c r="E43" s="5"/>
       <c r="F43" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="48" customHeight="1">
@@ -3981,7 +3981,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>49</v>
@@ -4004,7 +4004,7 @@
         <v>50</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/Courses/cs152.github.io/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966978EA-0D6A-C345-A76B-263257D8AE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70B8052-B591-6047-8B16-0DE933196E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="1180" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -319,9 +319,6 @@
     </r>
   </si>
   <si>
-    <t>[Notes](../lecture2-linear-regression/notes.qmd) [Slides](./notes/lecture2.pdf)</t>
-  </si>
-  <si>
     <t>Lecture 2</t>
   </si>
   <si>
@@ -1766,6 +1763,9 @@
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
+  </si>
+  <si>
+    <t>[Notes](../lecture2-linear-regression/notes.qmd)</t>
   </si>
 </sst>
 </file>
@@ -3013,8 +3013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -3088,7 +3088,7 @@
         <v>54</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>55</v>
@@ -3114,10 +3114,10 @@
         <v>59</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1">
@@ -3131,19 +3131,19 @@
         <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="48" customHeight="1">
@@ -3159,7 +3159,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>18</v>
@@ -3176,16 +3176,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="48" customHeight="1">
@@ -3199,19 +3199,19 @@
         <v>8</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="48" customHeight="1">
@@ -3227,7 +3227,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>51</v>
@@ -3245,13 +3245,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
@@ -3268,19 +3268,19 @@
         <v>8</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="H11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="48" customHeight="1">
@@ -3296,10 +3296,10 @@
       <c r="D12" s="2"/>
       <c r="E12" s="5"/>
       <c r="F12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="48" customHeight="1">
@@ -3313,13 +3313,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>16</v>
@@ -3336,19 +3336,19 @@
         <v>8</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="48" customHeight="1">
@@ -3364,10 +3364,10 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
       <c r="F15" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="48" customHeight="1">
@@ -3381,13 +3381,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="F16" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -3404,19 +3404,19 @@
         <v>8</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="48" customHeight="1">
@@ -3432,10 +3432,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -3450,13 +3450,13 @@
         <v>8</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="F19" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>25</v>
@@ -3473,19 +3473,19 @@
         <v>8</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="F20" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="48" customHeight="1">
@@ -3501,10 +3501,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -3519,13 +3519,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>28</v>
@@ -3542,13 +3542,13 @@
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>29</v>
@@ -3567,10 +3567,10 @@
       <c r="D24" s="2"/>
       <c r="E24" s="5"/>
       <c r="F24" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="48" customHeight="1">
@@ -3587,7 +3587,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="48" customHeight="1">
@@ -3601,13 +3601,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>31</v>
@@ -3624,13 +3624,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="F27" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>32</v>
@@ -3649,10 +3649,10 @@
       <c r="D28" s="2"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="48" customHeight="1">
@@ -3666,13 +3666,13 @@
         <v>8</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>34</v>
@@ -3689,19 +3689,19 @@
         <v>8</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="48" customHeight="1">
@@ -3717,10 +3717,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H31" s="8"/>
     </row>
@@ -3735,10 +3735,10 @@
         <v>8</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="2" t="s">
@@ -3756,7 +3756,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="7"/>
@@ -3764,7 +3764,7 @@
         <v>38</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="48" customHeight="1">
@@ -3780,10 +3780,10 @@
       <c r="D34" s="2"/>
       <c r="E34" s="5"/>
       <c r="F34" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H34" s="10"/>
     </row>
@@ -3798,13 +3798,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>40</v>
@@ -3821,7 +3821,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3829,7 +3829,7 @@
         <v>41</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="48" customHeight="1">
@@ -3845,10 +3845,10 @@
       <c r="D37" s="2"/>
       <c r="E37" s="5"/>
       <c r="F37" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="48" customHeight="1">
@@ -3862,7 +3862,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3881,15 +3881,15 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="48" customHeight="1">
@@ -3905,10 +3905,10 @@
       <c r="D40" s="2"/>
       <c r="E40" s="5"/>
       <c r="F40" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="48" customHeight="1">
@@ -3922,7 +3922,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -3941,7 +3941,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -3962,10 +3962,10 @@
       <c r="D43" s="2"/>
       <c r="E43" s="5"/>
       <c r="F43" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="48" customHeight="1">
@@ -3981,7 +3981,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>49</v>
@@ -4004,7 +4004,7 @@
         <v>50</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/Courses/cs152.github.io/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70B8052-B591-6047-8B16-0DE933196E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DDB6E5-557F-924A-9BD9-79630B3F3876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1180" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1160" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1765,7 +1765,7 @@
     </r>
   </si>
   <si>
-    <t>[Notes](../lecture2-linear-regression/notes.qmd)</t>
+    <t>[Notes](../lecture2-linear-regression/notes.qmd) [Blank slides](../lecture2-linear-regression/slides.pdf)</t>
   </si>
 </sst>
 </file>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/Courses/cs152.github.io/calendar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/Documents - Mac/Courses/cs152.github.io/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DDB6E5-557F-924A-9BD9-79630B3F3876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4437C25-00A1-FD4D-8F6C-A8977BC788F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1160" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="154">
   <si>
     <t>Week</t>
   </si>
@@ -325,6 +325,54 @@
     <t xml:space="preserve">Linear regression, maximum likelihood </t>
   </si>
   <si>
+    <t>Lecture 3</t>
+  </si>
+  <si>
+    <r>
+      <t>Homework 2 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/drive/folders/1deohwJarw4aa-Te3DYDrdbn35v1EWIsm?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Logistic regression</t>
+  </si>
+  <si>
     <r>
       <t>[</t>
     </r>
@@ -335,6 +383,147 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">): 10.1, 10.2.1, 10.2.3, 10.3.1-10.3.3 </t>
+    </r>
+  </si>
+  <si>
+    <t>Lecture 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multinomial logistic regression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Book 1](https://probml.github.io/pml-book/book1.html): 10.2.2 </t>
+  </si>
+  <si>
+    <t>Feature transforms</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>): 13.1, 13.2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural networks </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">): 13.1, 13.2 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
       <t>Notes</t>
     </r>
     <r>
@@ -354,6 +543,1131 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
+      <t>../lecture5-neural-networks-intro/notes.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>lecture 7</t>
+  </si>
+  <si>
+    <r>
+      <t>Homework 3 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/drive/folders/1Df96GdFpucM-YUf6c5PTWUfxWY-UrLXl?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>Deep neural networks</t>
+  </si>
+  <si>
+    <t>Automatic Differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Book 1](https://probml.github.io/pml-book/book1.html): 13.3 </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>../lecture6-backpropagation/notes.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Homework 4 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/drive/folders/1wIblhOu4c0LlbiveKP1Z2uTVre3d62pO?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>Homework 3 Due</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse-mode Automatic Differentiation </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">): 13.4.5, 13.5 </t>
+    </r>
+  </si>
+  <si>
+    <t>PyTorch</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>): 13.5</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Notebook](https://drive.google.com/file/d/1N76hpENuKchbfN0o-NZ02FAgZYPiWPVf/view?usp=drive_link)</t>
+  </si>
+  <si>
+    <r>
+      <t>Homework 5 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/drive/folders/1C9vFAnO_sogGupxvOrU4uQl8ZkF7seU5?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>Homework 4 Due</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1 &amp; L2 regularization </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">): 8.4 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Regularization (Cont.), Dropout </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>): 13.4.1-13.4.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Homework 6 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/drive/u/1/folders/1ohI5itSgEhBNmKSLQSjwmJlgWjioWDhi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>Homework 5 Due</t>
+  </si>
+  <si>
+    <t>Stochastic gradient descent</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">): 14.1-14.3 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>../lecture9-optimization/notes.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>Homework 6 Due</t>
+  </si>
+  <si>
+    <t>Spring break</t>
+  </si>
+  <si>
+    <t>Project Proposal Due</t>
+  </si>
+  <si>
+    <t>Residual networks and Normalization</t>
+  </si>
+  <si>
+    <t>Residual networks and Normalization (cont.)</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">): 15.1, 15.2.1-15.2.3 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>./notes/lecture14.pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>./notes/lecture15.pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>Convolutional Networks</t>
+  </si>
+  <si>
+    <t>Convolutional Networks (cont.)</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>./notes/lecture16.pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">): 15.2.5-15.2.7 </t>
+    </r>
+  </si>
+  <si>
+    <t>Language models, RNNs</t>
+  </si>
+  <si>
+    <r>
+      <t>Homework 7 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/drive/folders/1vZYEOfmDCfGxWMAAXeEwgMlvCOfKUgle?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Homework 8 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/drive/folders/1lO11Br_irrOckxZVZdi72MSjR8lTvQ_O?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>[Book 1](https://probml.github.io/pml-book/book1.html): 15.2.1-15.2.6</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>./notes/lecture17.pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>Autoencoders &amp; U-Nets</t>
+  </si>
+  <si>
+    <t>Image models</t>
+  </si>
+  <si>
+    <t>Homework 7 Due</t>
+  </si>
+  <si>
+    <t>Homework 9 assigned</t>
+  </si>
+  <si>
+    <t>Homework 8 Due</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>): 15.2.1-15.2.6</t>
+    </r>
+  </si>
+  <si>
+    <t>Attention layers</t>
+  </si>
+  <si>
+    <t>Homework 10 assigned</t>
+  </si>
+  <si>
+    <t>Project check-in assigned</t>
+  </si>
+  <si>
+    <t>Homework 9 Due</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformers (cont.), Large language models </t>
+  </si>
+  <si>
+    <t>Lecture 25</t>
+  </si>
+  <si>
+    <t>Project check-in due</t>
+  </si>
+  <si>
+    <t>Addressing bias in machine learning</t>
+  </si>
+  <si>
+    <t>Impacts of machine learning</t>
+  </si>
+  <si>
+    <t>Homework 10 Due</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-1)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-2)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-3)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-4)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-5)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-6)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-7)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-8)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-9)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final project ethics warm-up assigned </t>
+  </si>
+  <si>
+    <t>Ethics Warm-up Due</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/final-project/ethics.qmd)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/final-project/outline.qmd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Prerequisites](../lecture1-background/prereqs.qmd) [Notes](../lecture1-background/notes.qmd) [slides](../lecture1-background/slides.pdf) </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>../lecture8-regularization/notes.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>../lecture8-regularization/notes.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
       <t>../lecture2-linear-regression/notes.qmd</t>
     </r>
     <r>
@@ -363,15 +1677,15 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <t>Lecture 3</t>
-  </si>
-  <si>
-    <r>
-      <t>Homework 2 assigned ([</t>
+      <t>)  [Slides](../lecture2-linear-regression/filled-slides-pt2.pdf)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[Notes](../lecture2-linear-regression/notes.qmd)  [Slides](../lecture2-linear-regression/filled-slides-pt1.pdf)  [Blank](../lecture2-linear-regression/slides.pdf) </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -380,7 +1694,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>Drive</t>
+      <t>Notes</t>
     </r>
     <r>
       <rPr>
@@ -399,20 +1713,17 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>https://drive.google.com/drive/folders/1deohwJarw4aa-Te3DYDrdbn35v1EWIsm?usp=drive_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Logistic regression</t>
+      <t>../lecture3-logistic-regression/notes.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)  [Slides](../lecture3-logistic-regression/filled-slides-pt1.qmd)  [Blank](../lecture3-logistic-regression/slides.qmd)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -425,7 +1736,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>Book 1</t>
+      <t>Notes</t>
     </r>
     <r>
       <rPr>
@@ -444,16 +1755,16 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">): 10.1, 10.2.1, 10.2.3, 10.3.1-10.3.3 </t>
+      <t>../lecture3-logistic-regression/notes.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>) [Slides](../lecture3-logistic-regression/filled-slides-pt2.qmd)</t>
     </r>
   </si>
   <si>
@@ -486,102 +1797,6 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>../lecture3-logistic-regression/notes.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Lecture 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multinomial logistic regression </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Book 1](https://probml.github.io/pml-book/book1.html): 10.2.2 </t>
-  </si>
-  <si>
-    <t>Feature transforms</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>): 13.1, 13.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
       <t>../lecture4-feature-transforms/notes.qmd</t>
     </r>
     <r>
@@ -591,1181 +1806,8 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural networks </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">): 13.1, 13.2 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>../lecture5-neural-networks-intro/notes.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <t>lecture 7</t>
-  </si>
-  <si>
-    <r>
-      <t>Homework 3 assigned ([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://drive.google.com/drive/folders/1Df96GdFpucM-YUf6c5PTWUfxWY-UrLXl?usp=drive_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <t>Deep neural networks</t>
-  </si>
-  <si>
-    <t>Automatic Differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Book 1](https://probml.github.io/pml-book/book1.html): 13.3 </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>../lecture6-backpropagation/notes.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Homework 4 assigned ([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://drive.google.com/drive/folders/1wIblhOu4c0LlbiveKP1Z2uTVre3d62pO?usp=drive_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <t>Homework 3 Due</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse-mode Automatic Differentiation </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">): 13.4.5, 13.5 </t>
-    </r>
-  </si>
-  <si>
-    <t>PyTorch</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>): 13.5</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> [Notebook](https://drive.google.com/file/d/1N76hpENuKchbfN0o-NZ02FAgZYPiWPVf/view?usp=drive_link)</t>
-  </si>
-  <si>
-    <r>
-      <t>Homework 5 assigned ([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://drive.google.com/drive/folders/1C9vFAnO_sogGupxvOrU4uQl8ZkF7seU5?usp=drive_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <t>Homework 4 Due</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1 &amp; L2 regularization </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">): 8.4 </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Regularization (Cont.), Dropout </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>): 13.4.1-13.4.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Homework 6 assigned ([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://drive.google.com/drive/u/1/folders/1ohI5itSgEhBNmKSLQSjwmJlgWjioWDhi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <t>Homework 5 Due</t>
-  </si>
-  <si>
-    <t>Stochastic gradient descent</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">): 14.1-14.3 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>../lecture9-optimization/notes.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <t>Homework 6 Due</t>
-  </si>
-  <si>
-    <t>Spring break</t>
-  </si>
-  <si>
-    <t>Project Proposal Due</t>
-  </si>
-  <si>
-    <t>Residual networks and Normalization</t>
-  </si>
-  <si>
-    <t>Residual networks and Normalization (cont.)</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">): 15.1, 15.2.1-15.2.3 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Slides</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>./notes/lecture14.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Slides</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>./notes/lecture15.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <t>Convolutional Networks</t>
-  </si>
-  <si>
-    <t>Convolutional Networks (cont.)</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Slides</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>./notes/lecture16.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">): 15.2.5-15.2.7 </t>
-    </r>
-  </si>
-  <si>
-    <t>Language models, RNNs</t>
-  </si>
-  <si>
-    <r>
-      <t>Homework 7 assigned ([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://drive.google.com/drive/folders/1vZYEOfmDCfGxWMAAXeEwgMlvCOfKUgle?usp=drive_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Homework 8 assigned ([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://drive.google.com/drive/folders/1lO11Br_irrOckxZVZdi72MSjR8lTvQ_O?usp=drive_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <t>[Book 1](https://probml.github.io/pml-book/book1.html): 15.2.1-15.2.6</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Slides</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>./notes/lecture17.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <t>Autoencoders &amp; U-Nets</t>
-  </si>
-  <si>
-    <t>Image models</t>
-  </si>
-  <si>
-    <t>Homework 7 Due</t>
-  </si>
-  <si>
-    <t>Homework 9 assigned</t>
-  </si>
-  <si>
-    <t>Homework 8 Due</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>): 15.2.1-15.2.6</t>
-    </r>
-  </si>
-  <si>
-    <t>Attention layers</t>
-  </si>
-  <si>
-    <t>Homework 10 assigned</t>
-  </si>
-  <si>
-    <t>Project check-in assigned</t>
-  </si>
-  <si>
-    <t>Homework 9 Due</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformers (cont.), Large language models </t>
-  </si>
-  <si>
-    <t>Lecture 25</t>
-  </si>
-  <si>
-    <t>Project check-in due</t>
-  </si>
-  <si>
-    <t>Addressing bias in machine learning</t>
-  </si>
-  <si>
-    <t>Impacts of machine learning</t>
-  </si>
-  <si>
-    <t>Homework 10 Due</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-1)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-2)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-3)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-4)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-5)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-6)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-7)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-8)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-9)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final project ethics warm-up assigned </t>
-  </si>
-  <si>
-    <t>Ethics Warm-up Due</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/final-project/ethics.qmd)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/final-project/outline.qmd)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Prerequisites](../lecture1-background/prereqs.qmd) [Notes](../lecture1-background/notes.qmd) [slides](../lecture1-background/slides.pdf) </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>../lecture8-regularization/notes.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>../lecture8-regularization/notes.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <t>[Notes](../lecture2-linear-regression/notes.qmd) [Blank slides](../lecture2-linear-regression/slides.pdf)</t>
+      <t xml:space="preserve">) [Slides](../lecture4-feature-transforms/filled-slides.pdf)  [Blank](../lecture4-feature-transforms/slides.pdf) </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3014,7 +3056,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -3088,7 +3130,7 @@
         <v>54</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>55</v>
@@ -3114,7 +3156,7 @@
         <v>59</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>60</v>
@@ -3137,13 +3179,13 @@
         <v>59</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="48" customHeight="1">
@@ -3159,7 +3201,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>18</v>
@@ -3176,16 +3218,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="48" customHeight="1">
@@ -3199,19 +3241,19 @@
         <v>8</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="48" customHeight="1">
@@ -3227,7 +3269,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>51</v>
@@ -3245,13 +3287,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
@@ -3268,19 +3310,19 @@
         <v>8</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="H11" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="48" customHeight="1">
@@ -3296,10 +3338,10 @@
       <c r="D12" s="2"/>
       <c r="E12" s="5"/>
       <c r="F12" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="48" customHeight="1">
@@ -3313,13 +3355,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>16</v>
@@ -3336,19 +3378,19 @@
         <v>8</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="48" customHeight="1">
@@ -3364,10 +3406,10 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
       <c r="F15" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="48" customHeight="1">
@@ -3381,13 +3423,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -3404,19 +3446,19 @@
         <v>8</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="48" customHeight="1">
@@ -3432,10 +3474,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -3450,13 +3492,13 @@
         <v>8</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>25</v>
@@ -3473,19 +3515,19 @@
         <v>8</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="48" customHeight="1">
@@ -3501,10 +3543,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -3519,13 +3561,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>28</v>
@@ -3542,13 +3584,13 @@
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>29</v>
@@ -3567,10 +3609,10 @@
       <c r="D24" s="2"/>
       <c r="E24" s="5"/>
       <c r="F24" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="48" customHeight="1">
@@ -3587,7 +3629,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="48" customHeight="1">
@@ -3601,13 +3643,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>31</v>
@@ -3624,13 +3666,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>32</v>
@@ -3649,10 +3691,10 @@
       <c r="D28" s="2"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="48" customHeight="1">
@@ -3666,13 +3708,13 @@
         <v>8</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="F29" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>34</v>
@@ -3689,19 +3731,19 @@
         <v>8</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="48" customHeight="1">
@@ -3717,10 +3759,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H31" s="8"/>
     </row>
@@ -3735,10 +3777,10 @@
         <v>8</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="2" t="s">
@@ -3756,7 +3798,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="7"/>
@@ -3764,7 +3806,7 @@
         <v>38</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="48" customHeight="1">
@@ -3780,10 +3822,10 @@
       <c r="D34" s="2"/>
       <c r="E34" s="5"/>
       <c r="F34" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H34" s="10"/>
     </row>
@@ -3798,13 +3840,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>40</v>
@@ -3821,7 +3863,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3829,7 +3871,7 @@
         <v>41</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="48" customHeight="1">
@@ -3845,10 +3887,10 @@
       <c r="D37" s="2"/>
       <c r="E37" s="5"/>
       <c r="F37" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="48" customHeight="1">
@@ -3862,7 +3904,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3881,15 +3923,15 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="48" customHeight="1">
@@ -3905,10 +3947,10 @@
       <c r="D40" s="2"/>
       <c r="E40" s="5"/>
       <c r="F40" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="48" customHeight="1">
@@ -3922,7 +3964,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -3941,7 +3983,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -3962,10 +4004,10 @@
       <c r="D43" s="2"/>
       <c r="E43" s="5"/>
       <c r="F43" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="48" customHeight="1">
@@ -3981,7 +4023,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>49</v>
@@ -4004,7 +4046,7 @@
         <v>50</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/Documents - Mac/Courses/cs152.github.io/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4437C25-00A1-FD4D-8F6C-A8977BC788F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3752FC5C-6FC2-D942-BA81-8B4AED15D0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="1520" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="149">
   <si>
     <t>Week</t>
   </si>
@@ -742,9 +742,6 @@
     </r>
   </si>
   <si>
-    <t>PyTorch</t>
-  </si>
-  <si>
     <r>
       <t>[</t>
     </r>
@@ -835,9 +832,6 @@
     <t>Homework 4 Due</t>
   </si>
   <si>
-    <t xml:space="preserve">L1 &amp; L2 regularization </t>
-  </si>
-  <si>
     <r>
       <t>[</t>
     </r>
@@ -1015,6 +1009,21 @@
     </r>
   </si>
   <si>
+    <t>Homework 6 Due</t>
+  </si>
+  <si>
+    <t>Spring break</t>
+  </si>
+  <si>
+    <t>Project Proposal Due</t>
+  </si>
+  <si>
+    <t>Residual networks and Normalization</t>
+  </si>
+  <si>
+    <t>Residual networks and Normalization (cont.)</t>
+  </si>
+  <si>
     <r>
       <t>[</t>
     </r>
@@ -1025,6 +1034,312 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">): 15.1, 15.2.1-15.2.3 </t>
+    </r>
+  </si>
+  <si>
+    <t>Convolutional Networks</t>
+  </si>
+  <si>
+    <t>Convolutional Networks (cont.)</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">): 15.2.5-15.2.7 </t>
+    </r>
+  </si>
+  <si>
+    <t>Language models, RNNs</t>
+  </si>
+  <si>
+    <r>
+      <t>Homework 7 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/drive/folders/1vZYEOfmDCfGxWMAAXeEwgMlvCOfKUgle?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Homework 8 assigned ([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://drive.google.com/drive/folders/1lO11Br_irrOckxZVZdi72MSjR8lTvQ_O?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>[Book 1](https://probml.github.io/pml-book/book1.html): 15.2.1-15.2.6</t>
+  </si>
+  <si>
+    <t>Autoencoders &amp; U-Nets</t>
+  </si>
+  <si>
+    <t>Homework 7 Due</t>
+  </si>
+  <si>
+    <t>Homework 9 assigned</t>
+  </si>
+  <si>
+    <t>Homework 8 Due</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Book 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://probml.github.io/pml-book/book1.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>): 15.2.1-15.2.6</t>
+    </r>
+  </si>
+  <si>
+    <t>Attention layers</t>
+  </si>
+  <si>
+    <t>Homework 10 assigned</t>
+  </si>
+  <si>
+    <t>Project check-in assigned</t>
+  </si>
+  <si>
+    <t>Homework 9 Due</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Lecture 25</t>
+  </si>
+  <si>
+    <t>Project check-in due</t>
+  </si>
+  <si>
+    <t>Addressing bias in machine learning</t>
+  </si>
+  <si>
+    <t>Homework 10 Due</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-1)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-2)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-3)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-4)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-5)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-6)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-7)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-8)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-9)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final project ethics warm-up assigned </t>
+  </si>
+  <si>
+    <t>Ethics Warm-up Due</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/final-project/ethics.qmd)</t>
+  </si>
+  <si>
+    <t>[Assignment](../assignments/final-project/outline.qmd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Prerequisites](../lecture1-background/prereqs.qmd) [Notes](../lecture1-background/notes.qmd) [slides](../lecture1-background/slides.pdf) </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
       <t>Notes</t>
     </r>
     <r>
@@ -1044,7 +1359,49 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>../lecture9-optimization/notes.qmd</t>
+      <t>../lecture8-regularization/notes.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>../lecture8-regularization/notes.qmd</t>
     </r>
     <r>
       <rPr>
@@ -1057,21 +1414,6 @@
     </r>
   </si>
   <si>
-    <t>Homework 6 Due</t>
-  </si>
-  <si>
-    <t>Spring break</t>
-  </si>
-  <si>
-    <t>Project Proposal Due</t>
-  </si>
-  <si>
-    <t>Residual networks and Normalization</t>
-  </si>
-  <si>
-    <t>Residual networks and Normalization (cont.)</t>
-  </si>
-  <si>
     <r>
       <t>[</t>
     </r>
@@ -1082,7 +1424,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>Book 1</t>
+      <t>Notes</t>
     </r>
     <r>
       <rPr>
@@ -1101,17 +1443,20 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">): 15.1, 15.2.1-15.2.3 </t>
-    </r>
+      <t>../lecture2-linear-regression/notes.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)  [Slides](../lecture2-linear-regression/filled-slides-pt2.pdf)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[Notes](../lecture2-linear-regression/notes.qmd)  [Slides](../lecture2-linear-regression/filled-slides-pt1.pdf)  [Blank](../lecture2-linear-regression/slides.pdf) </t>
   </si>
   <si>
     <r>
@@ -1124,7 +1469,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>Slides</t>
+      <t>Notes</t>
     </r>
     <r>
       <rPr>
@@ -1143,16 +1488,16 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>./notes/lecture14.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
+      <t>../lecture4-feature-transforms/notes.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) [Slides](../lecture4-feature-transforms/filled-slides.pdf)  [Blank](../lecture4-feature-transforms/slides.pdf) </t>
     </r>
   </si>
   <si>
@@ -1166,7 +1511,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>Slides</t>
+      <t>Notes</t>
     </r>
     <r>
       <rPr>
@@ -1185,23 +1530,17 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>./notes/lecture15.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <t>Convolutional Networks</t>
-  </si>
-  <si>
-    <t>Convolutional Networks (cont.)</t>
+      <t>../lecture3-logistic-regression/notes.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)  [Slides](../lecture3-logistic-regression/filled-slides-pt1.pdf)  [Blank](../lecture3-logistic-regression/slides.pdf)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1214,7 +1553,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>Slides</t>
+      <t>Notes</t>
     </r>
     <r>
       <rPr>
@@ -1233,486 +1572,6 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>./notes/lecture16.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">): 15.2.5-15.2.7 </t>
-    </r>
-  </si>
-  <si>
-    <t>Language models, RNNs</t>
-  </si>
-  <si>
-    <r>
-      <t>Homework 7 assigned ([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://drive.google.com/drive/folders/1vZYEOfmDCfGxWMAAXeEwgMlvCOfKUgle?usp=drive_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Homework 8 assigned ([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://drive.google.com/drive/folders/1lO11Br_irrOckxZVZdi72MSjR8lTvQ_O?usp=drive_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <t>[Book 1](https://probml.github.io/pml-book/book1.html): 15.2.1-15.2.6</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Slides</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>./notes/lecture17.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <t>Autoencoders &amp; U-Nets</t>
-  </si>
-  <si>
-    <t>Image models</t>
-  </si>
-  <si>
-    <t>Homework 7 Due</t>
-  </si>
-  <si>
-    <t>Homework 9 assigned</t>
-  </si>
-  <si>
-    <t>Homework 8 Due</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://probml.github.io/pml-book/book1.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>): 15.2.1-15.2.6</t>
-    </r>
-  </si>
-  <si>
-    <t>Attention layers</t>
-  </si>
-  <si>
-    <t>Homework 10 assigned</t>
-  </si>
-  <si>
-    <t>Project check-in assigned</t>
-  </si>
-  <si>
-    <t>Homework 9 Due</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformers (cont.), Large language models </t>
-  </si>
-  <si>
-    <t>Lecture 25</t>
-  </si>
-  <si>
-    <t>Project check-in due</t>
-  </si>
-  <si>
-    <t>Addressing bias in machine learning</t>
-  </si>
-  <si>
-    <t>Impacts of machine learning</t>
-  </si>
-  <si>
-    <t>Homework 10 Due</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-1)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-2)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-3)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-4)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-5)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-6)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-7)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-8)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-9)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/homeworks/homeworks.qmd#Homework-10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final project ethics warm-up assigned </t>
-  </si>
-  <si>
-    <t>Ethics Warm-up Due</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/final-project/ethics.qmd)</t>
-  </si>
-  <si>
-    <t>[Assignment](../assignments/final-project/outline.qmd)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Prerequisites](../lecture1-background/prereqs.qmd) [Notes](../lecture1-background/notes.qmd) [slides](../lecture1-background/slides.pdf) </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>../lecture8-regularization/notes.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>../lecture8-regularization/notes.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>../lecture2-linear-regression/notes.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)  [Slides](../lecture2-linear-regression/filled-slides-pt2.pdf)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[Notes](../lecture2-linear-regression/notes.qmd)  [Slides](../lecture2-linear-regression/filled-slides-pt1.pdf)  [Blank](../lecture2-linear-regression/slides.pdf) </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
       <t>../lecture3-logistic-regression/notes.qmd</t>
     </r>
     <r>
@@ -1722,92 +1581,23 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>)  [Slides](../lecture3-logistic-regression/filled-slides-pt1.qmd)  [Blank](../lecture3-logistic-regression/slides.qmd)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>../lecture3-logistic-regression/notes.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>) [Slides](../lecture3-logistic-regression/filled-slides-pt2.qmd)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>../lecture4-feature-transforms/notes.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3B3B3B"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) [Slides](../lecture4-feature-transforms/filled-slides.pdf)  [Blank](../lecture4-feature-transforms/slides.pdf) </t>
-    </r>
+      <t>) [Slides](../lecture3-logistic-regression/filled-slides-pt1.pdf)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation, L1 &amp; L2 regularization </t>
+  </si>
+  <si>
+    <t>PyTorch, computational costs of neural networks</t>
+  </si>
+  <si>
+    <t>Image models, who owns data?</t>
+  </si>
+  <si>
+    <t>Large language models, effects of LLMs</t>
+  </si>
+  <si>
+    <t>When should we use machine learning?</t>
   </si>
 </sst>
 </file>
@@ -3055,8 +2845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -3130,7 +2920,7 @@
         <v>54</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>55</v>
@@ -3156,7 +2946,7 @@
         <v>59</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>60</v>
@@ -3179,7 +2969,7 @@
         <v>59</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>62</v>
@@ -3201,7 +2991,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>18</v>
@@ -3224,7 +3014,7 @@
         <v>65</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>66</v>
@@ -3247,7 +3037,7 @@
         <v>68</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
@@ -3269,7 +3059,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>51</v>
@@ -3293,7 +3083,7 @@
         <v>70</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
@@ -3338,7 +3128,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="5"/>
       <c r="F12" s="8" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>81</v>
@@ -3390,7 +3180,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="48" customHeight="1">
@@ -3406,10 +3196,10 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
       <c r="F15" s="8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="48" customHeight="1">
@@ -3446,19 +3236,19 @@
         <v>8</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="48" customHeight="1">
@@ -3474,10 +3264,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -3492,13 +3282,13 @@
         <v>8</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>25</v>
@@ -3515,19 +3305,19 @@
         <v>8</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="48" customHeight="1">
@@ -3543,10 +3333,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -3561,14 +3351,12 @@
         <v>8</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>97</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F22" s="8"/>
       <c r="G22" s="2" t="s">
         <v>28</v>
       </c>
@@ -3584,14 +3372,12 @@
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>97</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F23" s="8"/>
       <c r="G23" s="2" t="s">
         <v>29</v>
       </c>
@@ -3609,10 +3395,10 @@
       <c r="D24" s="2"/>
       <c r="E24" s="5"/>
       <c r="F24" s="8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="48" customHeight="1">
@@ -3629,7 +3415,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="48" customHeight="1">
@@ -3643,14 +3429,12 @@
         <v>8</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>104</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F26" s="8"/>
       <c r="G26" s="2" t="s">
         <v>31</v>
       </c>
@@ -3666,14 +3450,12 @@
         <v>8</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>105</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F27" s="8"/>
       <c r="G27" s="2" t="s">
         <v>32</v>
       </c>
@@ -3691,10 +3473,10 @@
       <c r="D28" s="2"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="48" customHeight="1">
@@ -3708,14 +3490,12 @@
         <v>8</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>108</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F29" s="8"/>
       <c r="G29" s="2" t="s">
         <v>34</v>
       </c>
@@ -3731,19 +3511,17 @@
         <v>8</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>108</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F30" s="8"/>
       <c r="G30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="48" customHeight="1">
@@ -3759,10 +3537,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H31" s="8"/>
     </row>
@@ -3777,10 +3555,10 @@
         <v>8</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="2" t="s">
@@ -3798,7 +3576,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="7"/>
@@ -3806,7 +3584,7 @@
         <v>38</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="48" customHeight="1">
@@ -3822,10 +3600,10 @@
       <c r="D34" s="2"/>
       <c r="E34" s="5"/>
       <c r="F34" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H34" s="10"/>
     </row>
@@ -3840,14 +3618,12 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>114</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F35" s="8"/>
       <c r="G35" s="2" t="s">
         <v>40</v>
       </c>
@@ -3863,7 +3639,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3871,7 +3647,7 @@
         <v>41</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="48" customHeight="1">
@@ -3887,10 +3663,10 @@
       <c r="D37" s="2"/>
       <c r="E37" s="5"/>
       <c r="F37" s="8" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="48" customHeight="1">
@@ -3904,7 +3680,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3923,15 +3699,15 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="48" customHeight="1">
@@ -3947,10 +3723,10 @@
       <c r="D40" s="2"/>
       <c r="E40" s="5"/>
       <c r="F40" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="48" customHeight="1">
@@ -3964,7 +3740,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -3983,7 +3759,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -4004,10 +3780,10 @@
       <c r="D43" s="2"/>
       <c r="E43" s="5"/>
       <c r="F43" s="8" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="48" customHeight="1">
@@ -4023,7 +3799,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>49</v>
@@ -4046,7 +3822,7 @@
         <v>50</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/Documents - Mac/Courses/cs152.github.io/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3752FC5C-6FC2-D942-BA81-8B4AED15D0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586F874F-60F6-2840-A1D2-33E9EC141D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1520" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="1900" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="150">
   <si>
     <t>Week</t>
   </si>
@@ -784,9 +784,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> [Notebook](https://drive.google.com/file/d/1N76hpENuKchbfN0o-NZ02FAgZYPiWPVf/view?usp=drive_link)</t>
-  </si>
-  <si>
     <r>
       <t>Homework 5 assigned ([</t>
     </r>
@@ -1598,6 +1595,51 @@
   </si>
   <si>
     <t>When should we use machine learning?</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>../lecture6-backpropagation/notes.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) [Slides](../lecture6-backpropagation/slides-filled.qmd) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Notebook](https://drive.google.com/file/d/1N76hpENuKchbfN0o-NZ02FAgZYPiWPVf/view?usp=drive_link) [Notes](../lecture8-regularization/notes.qmd) [Slides](../lecture8-regularization/slides.pdf) </t>
   </si>
 </sst>
 </file>
@@ -2845,8 +2887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -2920,7 +2962,7 @@
         <v>54</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>55</v>
@@ -2946,7 +2988,7 @@
         <v>59</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>60</v>
@@ -2969,7 +3011,7 @@
         <v>59</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>62</v>
@@ -2991,7 +3033,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>18</v>
@@ -3014,7 +3056,7 @@
         <v>65</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>66</v>
@@ -3037,7 +3079,7 @@
         <v>68</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
@@ -3059,7 +3101,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>51</v>
@@ -3083,7 +3125,7 @@
         <v>70</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
@@ -3128,7 +3170,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="5"/>
       <c r="F12" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>81</v>
@@ -3174,13 +3216,13 @@
         <v>78</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="48" customHeight="1">
@@ -3196,10 +3238,10 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
       <c r="F15" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="48" customHeight="1">
@@ -3236,19 +3278,19 @@
         <v>8</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="48" customHeight="1">
@@ -3264,10 +3306,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -3282,13 +3324,13 @@
         <v>8</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>25</v>
@@ -3305,19 +3347,19 @@
         <v>8</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="F20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="48" customHeight="1">
@@ -3333,10 +3375,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -3351,10 +3393,10 @@
         <v>8</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="2" t="s">
@@ -3372,10 +3414,10 @@
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="2" t="s">
@@ -3395,10 +3437,10 @@
       <c r="D24" s="2"/>
       <c r="E24" s="5"/>
       <c r="F24" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="48" customHeight="1">
@@ -3415,7 +3457,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="48" customHeight="1">
@@ -3429,10 +3471,10 @@
         <v>8</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="2" t="s">
@@ -3450,10 +3492,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="2" t="s">
@@ -3473,10 +3515,10 @@
       <c r="D28" s="2"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="48" customHeight="1">
@@ -3490,10 +3532,10 @@
         <v>8</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="2" t="s">
@@ -3511,17 +3553,17 @@
         <v>8</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="48" customHeight="1">
@@ -3537,10 +3579,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H31" s="8"/>
     </row>
@@ -3555,10 +3597,10 @@
         <v>8</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="2" t="s">
@@ -3576,7 +3618,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="7"/>
@@ -3584,7 +3626,7 @@
         <v>38</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="48" customHeight="1">
@@ -3600,10 +3642,10 @@
       <c r="D34" s="2"/>
       <c r="E34" s="5"/>
       <c r="F34" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H34" s="10"/>
     </row>
@@ -3618,10 +3660,10 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="2" t="s">
@@ -3639,7 +3681,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3647,7 +3689,7 @@
         <v>41</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="48" customHeight="1">
@@ -3663,10 +3705,10 @@
       <c r="D37" s="2"/>
       <c r="E37" s="5"/>
       <c r="F37" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="48" customHeight="1">
@@ -3680,7 +3722,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3699,15 +3741,15 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="48" customHeight="1">
@@ -3723,10 +3765,10 @@
       <c r="D40" s="2"/>
       <c r="E40" s="5"/>
       <c r="F40" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="48" customHeight="1">
@@ -3740,7 +3782,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -3759,7 +3801,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -3780,10 +3822,10 @@
       <c r="D43" s="2"/>
       <c r="E43" s="5"/>
       <c r="F43" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="48" customHeight="1">
@@ -3799,7 +3841,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>49</v>
@@ -3822,7 +3864,7 @@
         <v>50</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
